--- a/Resources/Data/loginData.xlsx
+++ b/Resources/Data/loginData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
